--- a/manuscript/performance_tables.xlsx
+++ b/manuscript/performance_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spiro Stilianoudakis\Documents\TAD_data_analysis\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6153340-6E9F-4065-8D1A-8B1D506E329D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE81A088-E470-4FEB-A5B5-CA8A220748C5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440" xr2:uid="{74FCF306-DAE9-4482-B1C1-20E2AF77EB97}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440" activeTab="2" xr2:uid="{74FCF306-DAE9-4482-B1C1-20E2AF77EB97}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluating_SMOTE" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
   <si>
     <t>Metric</t>
   </si>
@@ -109,6 +109,24 @@
   </si>
   <si>
     <t>No Log/Un-Std</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Backward</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>RFE</t>
+  </si>
+  <si>
+    <t>MCC</t>
+  </si>
+  <si>
+    <t>F1</t>
   </si>
 </sst>
 </file>
@@ -462,7 +480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61A46E8-4B15-431C-88BA-6FB4D02ECC7D}">
   <dimension ref="A2:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1314,12 +1332,355 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFCD6E2-880F-433C-9EDB-B296802656DF}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>336</v>
+      </c>
+      <c r="D3">
+        <v>334</v>
+      </c>
+      <c r="E3">
+        <v>334</v>
+      </c>
+      <c r="F3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>112</v>
+      </c>
+      <c r="D4">
+        <v>113</v>
+      </c>
+      <c r="E4">
+        <v>112</v>
+      </c>
+      <c r="F4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>152</v>
+      </c>
+      <c r="D5">
+        <v>154</v>
+      </c>
+      <c r="E5">
+        <v>154</v>
+      </c>
+      <c r="F5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>378</v>
+      </c>
+      <c r="D6">
+        <v>377</v>
+      </c>
+      <c r="E6">
+        <v>378</v>
+      </c>
+      <c r="F6">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>978</v>
+      </c>
+      <c r="D7">
+        <v>978</v>
+      </c>
+      <c r="E7">
+        <v>978</v>
+      </c>
+      <c r="F7">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>0.77</v>
+      </c>
+      <c r="D8">
+        <v>0.77</v>
+      </c>
+      <c r="E8">
+        <v>0.77</v>
+      </c>
+      <c r="F8">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>0.69</v>
+      </c>
+      <c r="D9">
+        <v>0.68</v>
+      </c>
+      <c r="E9">
+        <v>0.68</v>
+      </c>
+      <c r="F9">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>0.46</v>
+      </c>
+      <c r="D10">
+        <v>0.45</v>
+      </c>
+      <c r="E10">
+        <v>0.46</v>
+      </c>
+      <c r="F10">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>0.73</v>
+      </c>
+      <c r="D11">
+        <v>0.73</v>
+      </c>
+      <c r="E11">
+        <v>0.73</v>
+      </c>
+      <c r="F11">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>0.71</v>
+      </c>
+      <c r="D12">
+        <v>0.71</v>
+      </c>
+      <c r="E12">
+        <v>0.71</v>
+      </c>
+      <c r="F12">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>0.31</v>
+      </c>
+      <c r="D13">
+        <v>0.32</v>
+      </c>
+      <c r="E13">
+        <v>0.32</v>
+      </c>
+      <c r="F13">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>0.23</v>
+      </c>
+      <c r="D14">
+        <v>0.23</v>
+      </c>
+      <c r="E14">
+        <v>0.23</v>
+      </c>
+      <c r="F14">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>0.25</v>
+      </c>
+      <c r="D15">
+        <v>0.25</v>
+      </c>
+      <c r="E15">
+        <v>0.25</v>
+      </c>
+      <c r="F15">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>0.75</v>
+      </c>
+      <c r="D16">
+        <v>0.75</v>
+      </c>
+      <c r="E16">
+        <v>0.75</v>
+      </c>
+      <c r="F16">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>0.46</v>
+      </c>
+      <c r="D17">
+        <v>0.46</v>
+      </c>
+      <c r="E17">
+        <v>0.46</v>
+      </c>
+      <c r="F17">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>0.87</v>
+      </c>
+      <c r="D18">
+        <v>0.87</v>
+      </c>
+      <c r="E18">
+        <v>0.87</v>
+      </c>
+      <c r="F18">
+        <v>0.88</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/manuscript/performance_tables.xlsx
+++ b/manuscript/performance_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spiro Stilianoudakis\Documents\TAD_data_analysis\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE81A088-E470-4FEB-A5B5-CA8A220748C5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A968C7ED-B56D-42B9-815F-98777F26991D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440" activeTab="2" xr2:uid="{74FCF306-DAE9-4482-B1C1-20E2AF77EB97}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440" xr2:uid="{74FCF306-DAE9-4482-B1C1-20E2AF77EB97}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluating_SMOTE" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
   <si>
     <t>Metric</t>
   </si>
@@ -478,9 +478,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61A46E8-4B15-431C-88BA-6FB4D02ECC7D}">
-  <dimension ref="A2:K16"/>
+  <dimension ref="A2:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1007,6 +1009,76 @@
       </c>
       <c r="K16">
         <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>0.08</v>
+      </c>
+      <c r="D17">
+        <v>0.08</v>
+      </c>
+      <c r="E17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.08</v>
+      </c>
+      <c r="H17">
+        <v>0.08</v>
+      </c>
+      <c r="I17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K17">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>0.76</v>
+      </c>
+      <c r="D18">
+        <v>0.66</v>
+      </c>
+      <c r="E18">
+        <v>0.62</v>
+      </c>
+      <c r="F18">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G18">
+        <v>0.68</v>
+      </c>
+      <c r="H18">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J18">
+        <v>0.53</v>
+      </c>
+      <c r="K18">
+        <v>0.87</v>
       </c>
     </row>
   </sheetData>
@@ -1017,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8B0A29-48A3-473A-AE3F-AC041ADDA973}">
-  <dimension ref="A2:F16"/>
+  <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A17" sqref="A17:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,6 +1395,46 @@
       </c>
       <c r="F16">
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>0.47</v>
+      </c>
+      <c r="D17">
+        <v>0.46</v>
+      </c>
+      <c r="E17">
+        <v>0.46</v>
+      </c>
+      <c r="F17">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>0.87</v>
+      </c>
+      <c r="D18">
+        <v>0.87</v>
+      </c>
+      <c r="E18">
+        <v>0.91</v>
+      </c>
+      <c r="F18">
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>
@@ -1334,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFCD6E2-880F-433C-9EDB-B296802656DF}">
   <dimension ref="A2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/manuscript/performance_tables.xlsx
+++ b/manuscript/performance_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spiro Stilianoudakis\Documents\TAD_data_analysis\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A968C7ED-B56D-42B9-815F-98777F26991D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8647A2-0ABA-4B10-B37E-798367FFFC67}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440" xr2:uid="{74FCF306-DAE9-4482-B1C1-20E2AF77EB97}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440" activeTab="3" xr2:uid="{74FCF306-DAE9-4482-B1C1-20E2AF77EB97}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluating_SMOTE" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
   <si>
     <t>Metric</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>F1</t>
+  </si>
+  <si>
+    <t>MLR</t>
+  </si>
+  <si>
+    <t>MLR w/ LASSO Regularization</t>
+  </si>
+  <si>
+    <t>Our Pipeline</t>
   </si>
 </sst>
 </file>
@@ -162,8 +171,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61A46E8-4B15-431C-88BA-6FB4D02ECC7D}">
   <dimension ref="A2:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -1799,14 +1811,314 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D1B32D-4852-41BD-9677-0F0A5DB952F2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>572916</v>
+      </c>
+      <c r="D3">
+        <v>571162</v>
+      </c>
+      <c r="E3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2371</v>
+      </c>
+      <c r="D4">
+        <v>2314</v>
+      </c>
+      <c r="E4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>283532</v>
+      </c>
+      <c r="D5">
+        <v>285285</v>
+      </c>
+      <c r="E5">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>5495</v>
+      </c>
+      <c r="D6">
+        <v>5553</v>
+      </c>
+      <c r="E6">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>864314</v>
+      </c>
+      <c r="D7">
+        <v>864314</v>
+      </c>
+      <c r="E7">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>0.7</v>
+      </c>
+      <c r="D8">
+        <v>0.71</v>
+      </c>
+      <c r="E8">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>0.67</v>
+      </c>
+      <c r="D9">
+        <v>0.67</v>
+      </c>
+      <c r="E9">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>0.02</v>
+      </c>
+      <c r="D10">
+        <v>0.02</v>
+      </c>
+      <c r="E10">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>0.67</v>
+      </c>
+      <c r="D11">
+        <v>0.67</v>
+      </c>
+      <c r="E11">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>0.02</v>
+      </c>
+      <c r="D12">
+        <v>0.02</v>
+      </c>
+      <c r="E12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>0.33</v>
+      </c>
+      <c r="D13">
+        <v>0.33</v>
+      </c>
+      <c r="E13">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E14">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>0.82</v>
+      </c>
+      <c r="D18">
+        <v>0.83</v>
+      </c>
+      <c r="E18">
+        <v>0.88</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/manuscript/performance_tables.xlsx
+++ b/manuscript/performance_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spiro Stilianoudakis\Documents\TAD_data_analysis\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8647A2-0ABA-4B10-B37E-798367FFFC67}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DA313E-8165-4FC3-8529-F4EE96B36FD7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440" activeTab="3" xr2:uid="{74FCF306-DAE9-4482-B1C1-20E2AF77EB97}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440" activeTab="1" xr2:uid="{74FCF306-DAE9-4482-B1C1-20E2AF77EB97}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluating_SMOTE" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
   <si>
     <t>Metric</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>Our Pipeline</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number </t>
   </si>
 </sst>
 </file>
@@ -1101,17 +1107,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8B0A29-48A3-473A-AE3F-AC041ADDA973}">
-  <dimension ref="A2:F18"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1137,16 +1143,16 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>335</v>
+        <v>3350</v>
       </c>
       <c r="D3">
-        <v>333</v>
+        <v>3346</v>
       </c>
       <c r="E3">
-        <v>301</v>
+        <v>3185</v>
       </c>
       <c r="F3">
-        <v>278</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1157,16 +1163,16 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>109</v>
+        <v>1185</v>
       </c>
       <c r="D4">
-        <v>109</v>
+        <v>1185</v>
       </c>
       <c r="E4">
-        <v>82</v>
+        <v>1110</v>
       </c>
       <c r="F4">
-        <v>76</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1177,16 +1183,16 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>153</v>
+        <v>1378</v>
       </c>
       <c r="D5">
-        <v>155</v>
+        <v>1382</v>
       </c>
       <c r="E5">
-        <v>187</v>
+        <v>1543</v>
       </c>
       <c r="F5">
-        <v>210</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1197,16 +1203,16 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>381</v>
+        <v>3612</v>
       </c>
       <c r="D6">
-        <v>381</v>
+        <v>3612</v>
       </c>
       <c r="E6">
-        <v>408</v>
+        <v>3687</v>
       </c>
       <c r="F6">
-        <v>414</v>
+        <v>4047</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1217,16 +1223,16 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>978</v>
+        <v>9525</v>
       </c>
       <c r="D7">
-        <v>978</v>
+        <v>9525</v>
       </c>
       <c r="E7">
-        <v>978</v>
+        <v>9525</v>
       </c>
       <c r="F7">
-        <v>978</v>
+        <v>9525</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1237,16 +1243,16 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>0.78</v>
+        <v>0.753</v>
       </c>
       <c r="D8">
-        <v>0.78</v>
+        <v>0.753</v>
       </c>
       <c r="E8">
-        <v>0.83</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="F8">
-        <v>0.84</v>
+        <v>0.84399999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1257,16 +1263,16 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.69</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="D9">
-        <v>0.68</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="E9">
-        <v>0.62</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="F9">
-        <v>0.56999999999999995</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1277,16 +1283,16 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>0.46</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="D10">
-        <v>0.46</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="E10">
-        <v>0.45</v>
+        <v>0.443</v>
       </c>
       <c r="F10">
-        <v>0.41</v>
+        <v>0.41899999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1297,13 +1303,13 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>0.73</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="D11">
-        <v>0.73</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="E11">
-        <v>0.72</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="F11">
         <v>0.71</v>
@@ -1317,16 +1323,16 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>0.71</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="D12">
-        <v>0.71</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="E12">
-        <v>0.69</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="F12">
-        <v>0.66</v>
+        <v>0.66800000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1337,16 +1343,16 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>0.31</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="D13">
-        <v>0.32</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E13">
-        <v>0.38</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="F13">
-        <v>0.43</v>
+        <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1357,16 +1363,16 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>0.22</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="D14">
-        <v>0.22</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="E14">
-        <v>0.17</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="F14">
-        <v>0.16</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1377,16 +1383,16 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>0.25</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="D15">
-        <v>0.25</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="E15">
-        <v>0.21</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="F15">
-        <v>0.22</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1397,16 +1403,16 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>0.75</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="D16">
-        <v>0.75</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="E16">
-        <v>0.79</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="F16">
-        <v>0.78</v>
+        <v>0.78400000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1417,16 +1423,16 @@
         <v>31</v>
       </c>
       <c r="C17">
-        <v>0.47</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="D17">
-        <v>0.46</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="E17">
-        <v>0.46</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="F17">
-        <v>0.43</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1437,20 +1443,41 @@
         <v>32</v>
       </c>
       <c r="C18">
-        <v>0.87</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="D18">
-        <v>0.87</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="E18">
-        <v>0.91</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="F18">
-        <v>0.92</v>
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="D19">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="E19">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="F19">
+        <v>0.78500000000000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1813,7 +1840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D1B32D-4852-41BD-9677-0F0A5DB952F2}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>

--- a/manuscript/performance_tables.xlsx
+++ b/manuscript/performance_tables.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spiro Stilianoudakis\Documents\TAD_data_analysis\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DA313E-8165-4FC3-8529-F4EE96B36FD7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B64DF3-1790-43CF-915D-6BAA6289DF95}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440" activeTab="1" xr2:uid="{74FCF306-DAE9-4482-B1C1-20E2AF77EB97}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7440" tabRatio="621" firstSheet="1" activeTab="5" xr2:uid="{74FCF306-DAE9-4482-B1C1-20E2AF77EB97}"/>
   </bookViews>
   <sheets>
-    <sheet name="Evaluating_SMOTE" sheetId="1" r:id="rId1"/>
-    <sheet name="Normalization" sheetId="2" r:id="rId2"/>
-    <sheet name="Variable_Reduction" sheetId="3" r:id="rId3"/>
-    <sheet name="Final_Models" sheetId="4" r:id="rId4"/>
+    <sheet name="Unbalanced_Full" sheetId="5" r:id="rId1"/>
+    <sheet name="Unbalance_Filtered" sheetId="6" r:id="rId2"/>
+    <sheet name="Evaluating_SMOTE" sheetId="1" r:id="rId3"/>
+    <sheet name="Normalization" sheetId="2" r:id="rId4"/>
+    <sheet name="Variable_Reduction" sheetId="3" r:id="rId5"/>
+    <sheet name="Final_Models" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="43">
   <si>
     <t>Metric</t>
   </si>
@@ -39,21 +41,6 @@
     <t>200/200</t>
   </si>
   <si>
-    <t>100/300</t>
-  </si>
-  <si>
-    <t>200/300</t>
-  </si>
-  <si>
-    <t>300/300</t>
-  </si>
-  <si>
-    <t>400/300</t>
-  </si>
-  <si>
-    <t>Bootstraps</t>
-  </si>
-  <si>
     <t>TN</t>
   </si>
   <si>
@@ -120,9 +107,6 @@
     <t>Both</t>
   </si>
   <si>
-    <t>RFE</t>
-  </si>
-  <si>
     <t>MCC</t>
   </si>
   <si>
@@ -132,16 +116,49 @@
     <t>MLR</t>
   </si>
   <si>
-    <t>MLR w/ LASSO Regularization</t>
-  </si>
-  <si>
-    <t>Our Pipeline</t>
-  </si>
-  <si>
     <t>AUC</t>
   </si>
   <si>
     <t xml:space="preserve">Number </t>
+  </si>
+  <si>
+    <t>300/200</t>
+  </si>
+  <si>
+    <t>400/200</t>
+  </si>
+  <si>
+    <t>Unbalanced</t>
+  </si>
+  <si>
+    <t>Full Data</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>MLR w/ LASSO</t>
+  </si>
+  <si>
+    <t>Mourad Models</t>
+  </si>
+  <si>
+    <t>Number of Features</t>
+  </si>
+  <si>
+    <t>Unbalanced &amp; Reduced E-Net</t>
+  </si>
+  <si>
+    <t>Multi Under-Sampling</t>
+  </si>
+  <si>
+    <t>Elastic-Net</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our Pipeline </t>
   </si>
 </sst>
 </file>
@@ -177,11 +194,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,608 +513,907 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61A46E8-4B15-431C-88BA-6FB4D02ECC7D}">
-  <dimension ref="A2:K18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AF3D29-995A-4DED-BB05-7EF78C6D0724}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>75838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>80550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>0.80100000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743AC493-566E-4B5E-8B90-8C204CDE82E0}">
+  <dimension ref="A2:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>9525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>0.70099999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>0.71699999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.73399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61A46E8-4B15-431C-88BA-6FB4D02ECC7D}">
+  <dimension ref="A2:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>57722</v>
+        <v>53446</v>
       </c>
       <c r="D3">
-        <v>62345</v>
+        <v>59194</v>
       </c>
       <c r="E3">
-        <v>64076</v>
+        <v>61148</v>
       </c>
       <c r="F3">
-        <v>65046</v>
+        <v>62174</v>
       </c>
       <c r="G3">
-        <v>62720</v>
+        <v>3346</v>
       </c>
       <c r="H3">
-        <v>65803</v>
-      </c>
-      <c r="I3">
-        <v>66564</v>
-      </c>
-      <c r="J3">
-        <v>67192</v>
-      </c>
-      <c r="K3">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>190</v>
+        <v>1119</v>
       </c>
       <c r="D4">
-        <v>246</v>
+        <v>1608</v>
       </c>
       <c r="E4">
-        <v>271</v>
+        <v>1815</v>
       </c>
       <c r="F4">
-        <v>289</v>
+        <v>1953</v>
       </c>
       <c r="G4">
-        <v>239</v>
+        <v>1185</v>
       </c>
       <c r="H4">
-        <v>287</v>
-      </c>
-      <c r="I4">
-        <v>305</v>
-      </c>
-      <c r="J4">
-        <v>314</v>
-      </c>
-      <c r="K4">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>16078</v>
+        <v>22341</v>
       </c>
       <c r="D5">
-        <v>11455</v>
+        <v>16593</v>
       </c>
       <c r="E5">
-        <v>9724</v>
+        <v>14639</v>
       </c>
       <c r="F5">
-        <v>8754</v>
+        <v>13613</v>
       </c>
       <c r="G5">
-        <v>11080</v>
+        <v>1382</v>
       </c>
       <c r="H5">
-        <v>7997</v>
-      </c>
-      <c r="I5">
-        <v>7236</v>
-      </c>
-      <c r="J5">
-        <v>6608</v>
-      </c>
-      <c r="K5">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>298</v>
+        <v>3643</v>
       </c>
       <c r="D6">
-        <v>242</v>
+        <v>3154</v>
       </c>
       <c r="E6">
-        <v>217</v>
+        <v>2947</v>
       </c>
       <c r="F6">
-        <v>199</v>
+        <v>2809</v>
       </c>
       <c r="G6">
-        <v>249</v>
+        <v>3612</v>
       </c>
       <c r="H6">
-        <v>201</v>
-      </c>
-      <c r="I6">
-        <v>183</v>
-      </c>
-      <c r="J6">
-        <v>174</v>
-      </c>
-      <c r="K6">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>74288</v>
+        <v>80549</v>
       </c>
       <c r="D7">
-        <v>74288</v>
+        <v>80549</v>
       </c>
       <c r="E7">
-        <v>74288</v>
+        <v>80549</v>
       </c>
       <c r="F7">
-        <v>74288</v>
+        <v>80549</v>
       </c>
       <c r="G7">
-        <v>74288</v>
+        <v>9525</v>
       </c>
       <c r="H7">
-        <v>74288</v>
-      </c>
-      <c r="I7">
-        <v>74288</v>
-      </c>
-      <c r="J7">
-        <v>74288</v>
-      </c>
-      <c r="K7">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>0.61</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="E8">
-        <v>0.44</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="F8">
-        <v>0.41</v>
+        <v>0.59</v>
       </c>
       <c r="G8">
-        <v>0.51</v>
+        <v>0.753</v>
       </c>
       <c r="H8">
-        <v>0.41</v>
-      </c>
-      <c r="I8">
-        <v>0.38</v>
-      </c>
-      <c r="J8">
-        <v>0.36</v>
-      </c>
-      <c r="K8">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>0.78</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="D9">
-        <v>0.84</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="E9">
-        <v>0.87</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="F9">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="G9">
-        <v>0.85</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="H9">
-        <v>0.89</v>
-      </c>
-      <c r="I9">
-        <v>0.9</v>
-      </c>
-      <c r="J9">
-        <v>0.91</v>
-      </c>
-      <c r="K9">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.70099999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>0.02</v>
+        <v>0.152</v>
       </c>
       <c r="D10">
-        <v>0.03</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="E10">
-        <v>0.03</v>
+        <v>0.188</v>
       </c>
       <c r="F10">
-        <v>0.03</v>
+        <v>0.191</v>
       </c>
       <c r="G10">
-        <v>0.03</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="H10">
-        <v>0.03</v>
-      </c>
-      <c r="I10">
-        <v>0.03</v>
-      </c>
-      <c r="J10">
-        <v>0.04</v>
-      </c>
-      <c r="K10">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>0.78</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="D11">
-        <v>0.84</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="E11">
-        <v>0.87</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="F11">
-        <v>0.88</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="G11">
-        <v>0.85</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="H11">
-        <v>0.89</v>
-      </c>
-      <c r="I11">
-        <v>0.9</v>
-      </c>
-      <c r="J11">
-        <v>0.91</v>
-      </c>
-      <c r="K11">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>0.02</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D12">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="E12">
-        <v>0.02</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="F12">
-        <v>0.02</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="G12">
-        <v>0.02</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="H12">
-        <v>0.02</v>
-      </c>
-      <c r="I12">
-        <v>0.02</v>
-      </c>
-      <c r="J12">
-        <v>0.03</v>
-      </c>
-      <c r="K12">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.71699999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>0.22</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="D13">
-        <v>0.16</v>
+        <v>0.219</v>
       </c>
       <c r="E13">
-        <v>0.13</v>
+        <v>0.193</v>
       </c>
       <c r="F13">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G13">
-        <v>0.15</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="H13">
-        <v>0.11</v>
-      </c>
-      <c r="I13">
-        <v>0.1</v>
-      </c>
-      <c r="J13">
-        <v>0.09</v>
-      </c>
-      <c r="K13">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>0.39</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D14">
-        <v>0.5</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E14">
-        <v>0.56000000000000005</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F14">
-        <v>0.59</v>
+        <v>0.03</v>
       </c>
       <c r="G14">
-        <v>0.49</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="H14">
-        <v>0.59</v>
-      </c>
-      <c r="I14">
-        <v>0.62</v>
-      </c>
-      <c r="J14">
-        <v>0.64</v>
-      </c>
-      <c r="K14">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.73399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C17">
-        <v>0.08</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="D17">
-        <v>0.08</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="E17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="F17">
-        <v>7.0000000000000007E-2</v>
+        <v>0.24</v>
       </c>
       <c r="G17">
-        <v>0.08</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="H17">
-        <v>0.08</v>
-      </c>
-      <c r="I17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K17">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C18">
-        <v>0.76</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="D18">
-        <v>0.66</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="E18">
-        <v>0.62</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="F18">
-        <v>0.57999999999999996</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="G18">
-        <v>0.68</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="H18">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="I18">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J18">
-        <v>0.53</v>
-      </c>
-      <c r="K18">
-        <v>0.87</v>
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="D19">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="E19">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="F19">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="G19">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="H19">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -1105,34 +1422,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8B0A29-48A3-473A-AE3F-AC041ADDA973}">
   <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1140,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>3350</v>
@@ -1160,7 +1477,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>1185</v>
@@ -1180,7 +1497,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1378</v>
@@ -1200,7 +1517,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>3612</v>
@@ -1220,7 +1537,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>9525</v>
@@ -1240,7 +1557,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>0.753</v>
@@ -1260,7 +1577,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>0.70899999999999996</v>
@@ -1280,7 +1597,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>0.46200000000000002</v>
@@ -1300,7 +1617,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>0.73099999999999998</v>
@@ -1320,7 +1637,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>0.72399999999999998</v>
@@ -1340,7 +1657,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>0.29099999999999998</v>
@@ -1360,7 +1677,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>0.26100000000000001</v>
@@ -1380,7 +1697,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>0.26100000000000001</v>
@@ -1400,7 +1717,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>0.73899999999999999</v>
@@ -1420,7 +1737,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>0.46200000000000002</v>
@@ -1440,7 +1757,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>0.73799999999999999</v>
@@ -1460,7 +1777,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>0.80500000000000005</v>
@@ -1481,354 +1798,343 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFCD6E2-880F-433C-9EDB-B296802656DF}">
-  <dimension ref="A2:F18"/>
+  <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>336</v>
+        <v>3341</v>
       </c>
       <c r="D3">
-        <v>334</v>
+        <v>3336</v>
       </c>
       <c r="E3">
-        <v>334</v>
-      </c>
-      <c r="F3">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>112</v>
+        <v>1178</v>
       </c>
       <c r="D4">
-        <v>113</v>
+        <v>1175</v>
       </c>
       <c r="E4">
-        <v>112</v>
-      </c>
-      <c r="F4">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>152</v>
+        <v>1387</v>
       </c>
       <c r="D5">
-        <v>154</v>
+        <v>1392</v>
       </c>
       <c r="E5">
-        <v>154</v>
-      </c>
-      <c r="F5">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>378</v>
+        <v>3619</v>
       </c>
       <c r="D6">
-        <v>377</v>
+        <v>3622</v>
       </c>
       <c r="E6">
-        <v>378</v>
-      </c>
-      <c r="F6">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>978</v>
+        <v>9525</v>
       </c>
       <c r="D7">
-        <v>978</v>
+        <v>9525</v>
       </c>
       <c r="E7">
-        <v>978</v>
-      </c>
-      <c r="F7">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>0.77</v>
+        <v>0.754</v>
       </c>
       <c r="D8">
-        <v>0.77</v>
+        <v>0.755</v>
       </c>
       <c r="E8">
-        <v>0.77</v>
-      </c>
-      <c r="F8">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>0.69</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="D9">
-        <v>0.68</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="E9">
-        <v>0.68</v>
-      </c>
-      <c r="F9">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>0.46</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D10">
-        <v>0.45</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="E10">
         <v>0.46</v>
       </c>
-      <c r="F10">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>0.73</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="D11">
-        <v>0.73</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="E11">
         <v>0.73</v>
       </c>
-      <c r="F11">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>0.71</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="D12">
-        <v>0.71</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="E12">
-        <v>0.71</v>
-      </c>
-      <c r="F12">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.72199999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>0.31</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="D13">
-        <v>0.32</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="E13">
-        <v>0.32</v>
-      </c>
-      <c r="F13">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>0.23</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="D14">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="E14">
-        <v>0.23</v>
-      </c>
-      <c r="F14">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>0.25</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="D15">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="E15">
-        <v>0.25</v>
-      </c>
-      <c r="F15">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>0.75</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="D16">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="E16">
-        <v>0.75</v>
-      </c>
-      <c r="F16">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.73799999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C17">
-        <v>0.46</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="D17">
-        <v>0.46</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="E17">
         <v>0.46</v>
       </c>
-      <c r="F17">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C18">
-        <v>0.87</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="D18">
-        <v>0.87</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="E18">
-        <v>0.87</v>
-      </c>
-      <c r="F18">
-        <v>0.88</v>
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="D19">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="E19">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1836,315 +2142,460 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D1B32D-4852-41BD-9677-0F0A5DB952F2}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>527016</v>
+      </c>
+      <c r="C3">
+        <v>527067</v>
+      </c>
+      <c r="D3">
+        <v>75689</v>
+      </c>
+      <c r="E3">
+        <v>75712</v>
+      </c>
+      <c r="F3">
+        <v>3335</v>
+      </c>
+      <c r="G3">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>28596</v>
+      </c>
+      <c r="C4">
+        <v>28520</v>
+      </c>
+      <c r="D4">
+        <v>4696</v>
+      </c>
+      <c r="E4">
+        <v>4835</v>
+      </c>
+      <c r="F4">
+        <v>1181</v>
+      </c>
+      <c r="G4">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>240886</v>
+      </c>
+      <c r="C5">
+        <v>240794</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>572916</v>
-      </c>
-      <c r="D3">
-        <v>571162</v>
-      </c>
-      <c r="E3">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="F5">
+        <v>1393</v>
+      </c>
+      <c r="G5">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>67816</v>
+      </c>
+      <c r="C6">
+        <v>67933</v>
+      </c>
+      <c r="D6">
+        <v>65</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>2371</v>
-      </c>
-      <c r="D4">
-        <v>2314</v>
-      </c>
-      <c r="E4">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>283532</v>
-      </c>
-      <c r="D5">
-        <v>285285</v>
-      </c>
-      <c r="E5">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>5495</v>
-      </c>
-      <c r="D6">
-        <v>5553</v>
-      </c>
-      <c r="E6">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
+      <c r="F6">
+        <v>3616</v>
+      </c>
+      <c r="G6">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>864314</v>
       </c>
       <c r="C7">
         <v>864314</v>
       </c>
       <c r="D7">
-        <v>864314</v>
+        <v>80550</v>
       </c>
       <c r="E7">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+        <v>80550</v>
+      </c>
+      <c r="F7">
+        <v>9525</v>
+      </c>
+      <c r="G7">
+        <v>9525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="C8">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="D8">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.753</v>
+      </c>
+      <c r="G8">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="C9">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="D9">
+        <v>0.999</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="G9">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D10">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E10">
+        <v>1E-3</v>
+      </c>
+      <c r="F10">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="G10">
+        <v>0.51900000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="C11">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="D11">
+        <v>0.94</v>
+      </c>
+      <c r="E11">
+        <v>0.94</v>
+      </c>
+      <c r="F11">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="G11">
+        <v>0.75900000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0.22</v>
+      </c>
+      <c r="C12">
+        <v>0.22</v>
+      </c>
+      <c r="D12">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="E12">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F12">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="G12">
+        <v>0.73899999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
-        <v>0.7</v>
-      </c>
-      <c r="D8">
-        <v>0.71</v>
-      </c>
-      <c r="E8">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B13">
+        <v>0.314</v>
+      </c>
+      <c r="C13">
+        <v>0.314</v>
+      </c>
+      <c r="D13">
+        <v>1E-3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="G13">
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
-        <v>0.67</v>
-      </c>
-      <c r="D9">
-        <v>0.67</v>
-      </c>
-      <c r="E9">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B14">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="D14">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.06</v>
+      </c>
+      <c r="F14">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="C10">
-        <v>0.02</v>
-      </c>
-      <c r="D10">
-        <v>0.02</v>
-      </c>
-      <c r="E10">
+      <c r="B15">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C15">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D15">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.06</v>
+      </c>
+      <c r="F15">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="G15">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="C16">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="D16">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="E16">
+        <v>0.94</v>
+      </c>
+      <c r="F16">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="G16">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="C17">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D17">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E17">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F17">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>0.67</v>
-      </c>
-      <c r="D11">
-        <v>0.67</v>
-      </c>
-      <c r="E11">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>0.02</v>
-      </c>
-      <c r="D12">
-        <v>0.02</v>
-      </c>
-      <c r="E12">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <v>0.33</v>
-      </c>
-      <c r="D13">
-        <v>0.33</v>
-      </c>
-      <c r="E13">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>0.3</v>
-      </c>
-      <c r="D14">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E14">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E17">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
+      <c r="G17">
+        <v>0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.82599999999999996</v>
       </c>
       <c r="C18">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="D18">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E18">
+        <v>1E-3</v>
+      </c>
+      <c r="F18">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="G18">
+        <v>0.77100000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>0.753</v>
+      </c>
+      <c r="C19">
+        <v>0.75</v>
+      </c>
+      <c r="D19">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="E19">
         <v>0.82</v>
       </c>
-      <c r="D18">
-        <v>0.83</v>
-      </c>
-      <c r="E18">
-        <v>0.88</v>
+      <c r="F19">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="G19">
+        <v>0.83299999999999996</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
